--- a/techRadarSource — копия.xlsx
+++ b/techRadarSource — копия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\tech-radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE32D19-F7BB-4B1B-A637-0C6E4C9B52AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692668C9-B34F-406B-9D9F-A53463FE137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{D0E5AF86-51E4-4329-BFCB-5FE4200F8556}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{D0E5AF86-51E4-4329-BFCB-5FE4200F8556}"/>
   </bookViews>
   <sheets>
     <sheet name="radar" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="218">
   <si>
     <t>Тип приложения</t>
   </si>
@@ -103,9 +103,6 @@
     <t>RtkQuery</t>
   </si>
   <si>
-    <t>Zustang</t>
-  </si>
-  <si>
     <t>MarkdownIt</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>gitlab-ci</t>
   </si>
   <si>
-    <t>pupeeter</t>
-  </si>
-  <si>
     <t>SSG</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>jquery</t>
   </si>
   <si>
-    <t>keyclockjs</t>
-  </si>
-  <si>
     <t>lighthouse</t>
   </si>
   <si>
@@ -259,9 +250,6 @@
     <t>docker</t>
   </si>
   <si>
-    <t>kuber</t>
-  </si>
-  <si>
     <t>@monaco-editor/react</t>
   </si>
   <si>
@@ -526,9 +514,6 @@
     <t>architecture</t>
   </si>
   <si>
-    <t>approach</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -622,9 +607,6 @@
     <t>xss</t>
   </si>
   <si>
-    <t>toasts</t>
-  </si>
-  <si>
     <t>forms</t>
   </si>
   <si>
@@ -701,6 +683,15 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Hello **world** !</t>
+  </si>
+  <si>
+    <t>keyclock</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
   </si>
 </sst>
 </file>
@@ -887,11 +878,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D373D6EA-0DEB-453C-A593-8D3D82EAAFD4}" name="Таблица1" displayName="Таблица1" ref="A1:H1048573" totalsRowShown="0" headerRowCellStyle="Акцент1">
-  <autoFilter ref="A1:H1048573" xr:uid="{D373D6EA-0DEB-453C-A593-8D3D82EAAFD4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H155">
-    <sortCondition ref="A2:A155"/>
-    <sortCondition ref="B2:B155"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D373D6EA-0DEB-453C-A593-8D3D82EAAFD4}" name="Таблица1" displayName="Таблица1" ref="A1:H1048562" totalsRowShown="0" headerRowCellStyle="Акцент1">
+  <autoFilter ref="A1:H1048562" xr:uid="{D373D6EA-0DEB-453C-A593-8D3D82EAAFD4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H144">
+    <sortCondition ref="A2:A144"/>
+    <sortCondition ref="B2:B144"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{66BF8F95-14AE-4F5F-AF21-8C5AC5095BBF}" name="tags"/>
@@ -1234,20 +1225,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E083F0B-9B6B-4AE1-B88F-228D13850335}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="70.28515625" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
@@ -1255,92 +1246,92 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>162</v>
-      </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1350,11 +1341,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1364,11 +1352,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>162</v>
-      </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1379,178 +1364,307 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>176</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -1558,688 +1672,1189 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>177</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>195</v>
       </c>
-      <c r="B48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>195</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>201</v>
-      </c>
-      <c r="B58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B60" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>172</v>
-      </c>
-      <c r="B62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>169</v>
-      </c>
-      <c r="B71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>169</v>
-      </c>
-      <c r="B72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>169</v>
-      </c>
-      <c r="B79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>128</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>133</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>179</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>143</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>144</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>95</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>127</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>106</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>21</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>146</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>107</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" t="s">
+        <v>193</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>181</v>
+      </c>
+      <c r="B107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>151</v>
-      </c>
-      <c r="B101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>165</v>
-      </c>
-      <c r="B107" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>91</v>
-      </c>
-      <c r="B108" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>91</v>
-      </c>
-      <c r="B110" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>91</v>
-      </c>
       <c r="B111" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>119</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>120</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>192</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
       </c>
       <c r="E115" t="s">
         <v>12</v>
@@ -2247,368 +2862,492 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="B116" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>93</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B120" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>94</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>132</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B128" t="s">
-        <v>50</v>
+        <v>91</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>118</v>
+        <v>55</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>117</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B132" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>98</v>
+        <v>60</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>61</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B135" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B136" t="s">
-        <v>96</v>
+        <v>59</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B137" t="s">
-        <v>57</v>
+        <v>113</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B138" t="s">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B139" t="s">
-        <v>26</v>
+        <v>135</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>102</v>
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>58</v>
+        <v>138</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B142" t="s">
         <v>121</v>
       </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B143" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B144" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="B146" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="B147" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="B150" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>167</v>
-      </c>
-      <c r="B151" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>167</v>
-      </c>
-      <c r="B152" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>167</v>
-      </c>
-      <c r="B153" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>193</v>
-      </c>
-      <c r="B154" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>176</v>
-      </c>
-      <c r="B155" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>212</v>
-      </c>
-      <c r="B156" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>72</v>
-      </c>
-      <c r="B157" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>72</v>
-      </c>
-      <c r="B158" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>72</v>
-      </c>
-      <c r="B159" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>72</v>
-      </c>
-      <c r="B160" t="s">
-        <v>211</v>
+        <v>217</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2626,23 +3365,23 @@
           </x14:formula1>
           <xm:sqref>H2:H16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6857320C-10DD-4851-98FA-A3CA686293DC}">
-          <x14:formula1>
-            <xm:f>meta!$B$2:$B$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D259</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22A5C488-559F-42E7-A17A-04288449D623}">
           <x14:formula1>
             <xm:f>meta!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E31:E262</xm:sqref>
+          <xm:sqref>E29:E251</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D20745B5-286D-496D-BD05-84240078EC23}">
           <x14:formula1>
             <xm:f>meta!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E30</xm:sqref>
+          <xm:sqref>E2:E28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6857320C-10DD-4851-98FA-A3CA686293DC}">
+          <x14:formula1>
+            <xm:f>meta!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D248</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2654,7 +3393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6C950-CFE7-427E-850B-C69C61A56F07}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
@@ -2671,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,7 +3471,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>

--- a/techRadarSource — копия.xlsx
+++ b/techRadarSource — копия.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\tech-radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692668C9-B34F-406B-9D9F-A53463FE137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF028A-8C9D-431A-BB82-D55B1124B228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{D0E5AF86-51E4-4329-BFCB-5FE4200F8556}"/>
+    <workbookView xWindow="9600" yWindow="4185" windowWidth="28800" windowHeight="11295" xr2:uid="{D0E5AF86-51E4-4329-BFCB-5FE4200F8556}"/>
   </bookViews>
   <sheets>
     <sheet name="radar" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="378">
   <si>
     <t>Тип приложения</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Hold/Cancelled/Legacy</t>
   </si>
   <si>
-    <t>Language &amp; Framework</t>
-  </si>
-  <si>
     <t>Использовал пару раз</t>
   </si>
   <si>
@@ -685,20 +682,503 @@
     <t>description</t>
   </si>
   <si>
-    <t>Hello **world** !</t>
-  </si>
-  <si>
     <t>keyclock</t>
   </si>
   <si>
     <t>kubernetes</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/chatgpt</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/claude</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/gemini</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@langchain/openai</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/openspec first</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/microfrontends</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/modulefederation</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/swiper</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/concurrently</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/copyfiles</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/cross-env</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/npm</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/npm-run-all</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/rimraf</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/ts-node</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/yarn</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/rollup</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/vite</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/webpack</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/gitlab-ci</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@rtk-query/codegen-openap</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/tanstack\query</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/better-sqlite3</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/mongoose</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@mui/x-date-pickers</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/dayjs</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/drawio</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/dynosareus</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/markdown</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/typedoc</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@dnd-kit/core</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react-draggable</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react-dropzone</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/body-parser</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/cors</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/express-ws</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/imask</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react-hook-form</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react native</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react reconciller</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@react-google-maps/api</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/apollo</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/cursor</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/idea</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/trae</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/vs code</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/typescript</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/typescript advanced typings</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@monaco-editor/react</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@react-hook/resize-observer</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@rsql/builder</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/adm-zip</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/classnames</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/debounce</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/deep-for-each</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/globals</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/jquery</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/jsdom</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/jszip</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/less</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/lodash</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/minimist</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/nanoid</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/nodemon</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react-resizable-panels</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/sass</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/unique-names-generator</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/url-join</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/url-loader</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/uuid</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/zod</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/eslint</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/husky</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/lint-staged</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/prettier</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/simple-git-hooks</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/stylelint</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/eslint complexity rules</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/i18next</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/next-i18next</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/pnpm</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/turbo</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/jwt-decode</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/keycloak-js</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/keyclock</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/next-auth</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/swagger</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/jspdf</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/pdfjs-dist</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react-pdf</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/lighthouse</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/vite-plugin-pwa</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react-router</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/tanstack\router</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/nginx</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@reduxjs/toolkit</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/mobx</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/redux-dynamic-middlewares</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/redux-persist</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/tanstack\store</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/zustand</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/centry</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/jaeger</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/loglevel</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/opentelemetry</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/prom-client</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/prometeus</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/jest</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/json-server</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/newman</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/playwrite</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/postman</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/puppeteer</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/testcafe</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/notistack</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/graphql-request</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/rest</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/websocket</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@mui/material</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/country-flag-icons</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react-imask</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/react-number-format</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/isomorphic-dompurify</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/pluntuml</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/webstorm</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/docker</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/rancher desktop</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/docker desktop</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/podman</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/kubernetes</t>
+  </si>
+  <si>
+    <t>ChatGPT is OpenAI’s large‑language‑model API providing text and multimodal generation capabilities.</t>
+  </si>
+  <si>
+    <t>Claude is Anthropic’s AI assistant API focused on safe, steerable large‑language‑model interactions.</t>
+  </si>
+  <si>
+    <t>Gemini is Google’s multimodal LLM platform providing text, vision, and code generation APIs.</t>
+  </si>
+  <si>
+    <t>LangChain OpenAI package provides LangChain integrations for invoking OpenAI models via unified chains and agents.</t>
+  </si>
+  <si>
+    <t>Technology description from official documentation is not yet defined.</t>
+  </si>
+  <si>
+    <t>SSG (Static‑Site Generation) pre-renders pages at build time to produce static HTML for fast delivery.</t>
+  </si>
+  <si>
+    <t>SSR (Server‑Side Rendering) renders pages on the server per request to improve SEO and initial load.</t>
+  </si>
+  <si>
+    <t>Feature‑Sliced Design is an architectural methodology organizing frontend code into layers and slices for scalability.</t>
+  </si>
+  <si>
+    <t>Microfrontends is an architectural style where the UI is split into independently deployable frontend modules.</t>
+  </si>
+  <si>
+    <t>Webpack Module Federation enables runtime code sharing between separately built JavaScript bundles.</t>
+  </si>
+  <si>
+    <t>Swiper is a modern touch slider library for mobile and web supporting gestures, pagination, and rich UI components.</t>
+  </si>
+  <si>
+    <t>Concurrently is an npm tool to run multiple commands in parallel in a single terminal.</t>
+  </si>
+  <si>
+    <t>copyfiles is an npm utility for recursively copying files and directory structures.</t>
+  </si>
+  <si>
+    <t>cross-env sets environment variables across operating systems in npm scripts.</t>
+  </si>
+  <si>
+    <t>npm is Node.js’s default package manager for installing, publishing, and managing JavaScript packages.</t>
+  </si>
+  <si>
+    <t>npm-run-all is a CLI tool to run multiple npm scripts sequentially or in parallel.</t>
+  </si>
+  <si>
+    <t>MUI is a React component library implementing Material Design system components.</t>
+  </si>
+  <si>
+    <t>StompJS is a JavaScript client implementing the STOMP protocol for messaging over WebSocket.</t>
+  </si>
+  <si>
+    <t>WebSocket is a full‑duplex communication protocol enabling persistent real‑time client–server connections.</t>
+  </si>
+  <si>
+    <t>Ant Design is an enterprise‑grade React UI component library with a comprehensive design system.</t>
+  </si>
+  <si>
+    <t>country-flag-icons provides lightweight SVG/CSS flag icons for web applications.</t>
+  </si>
+  <si>
+    <t>react-imask is a React wrapper for iMask providing input masking for text fields.</t>
+  </si>
+  <si>
+    <t>react-number-format formats numeric inputs with masks, separators, and currency patterns for React.</t>
+  </si>
+  <si>
+    <t>isomorphic-dompurify sanitizes HTML on both client and server to prevent XSS.</t>
+  </si>
+  <si>
+    <t>plantuml (likely pluntuml) renders UML diagrams from plain‑text descriptions.</t>
+  </si>
+  <si>
+    <t>WebStorm is JetBrains’s IDE for JavaScript, TypeScript, and modern web development.</t>
+  </si>
+  <si>
+    <t>Docker is a containerization platform for packaging applications and dependencies into portable containers.</t>
+  </si>
+  <si>
+    <t>Rancher Desktop is a local Kubernetes and container management environment for developers.</t>
+  </si>
+  <si>
+    <t>Docker Desktop is a GUI tool for managing Docker containers and Kubernetes on local machines.</t>
+  </si>
+  <si>
+    <t>Podman is a daemonless container engine compatible with Docker images and OCI standards.</t>
+  </si>
+  <si>
+    <t>Kubernetes is an orchestration platform for deploying, scaling, and managing containerized applications.</t>
+  </si>
+  <si>
+    <t>Languages &amp; Frameworks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +1211,20 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -754,19 +1248,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{E888EB42-289F-4543-938A-49A314346313}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1228,54 +1731,57 @@
   <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="70.28515625" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1283,16 +1789,19 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>215</v>
+      <c r="F2" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1300,13 +1809,19 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1314,13 +1829,19 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1328,10 +1849,16 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1339,49 +1866,67 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1389,13 +1934,19 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1403,13 +1954,19 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
+      <c r="F11" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1417,13 +1974,19 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
+      <c r="F12" s="4" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1431,13 +1994,19 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1445,13 +2014,19 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1459,13 +2034,19 @@
       <c r="E15" t="s">
         <v>10</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1473,13 +2054,19 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1487,13 +2074,19 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1501,13 +2094,17 @@
       <c r="E18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1515,13 +2112,17 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1529,13 +2130,17 @@
       <c r="E20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1543,13 +2148,17 @@
       <c r="E21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -1557,13 +2166,17 @@
       <c r="E22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -1571,13 +2184,17 @@
       <c r="E23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1585,13 +2202,17 @@
       <c r="E24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1599,27 +2220,33 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1627,111 +2254,141 @@
       <c r="E27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -1739,27 +2396,33 @@
       <c r="E35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C36" s="4"/>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -1767,13 +2430,17 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1781,13 +2448,17 @@
       <c r="E38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1795,181 +2466,229 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C48" s="4"/>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -1977,27 +2696,35 @@
       <c r="E52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2005,13 +2732,17 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2019,13 +2750,17 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2033,13 +2768,17 @@
       <c r="E56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2047,363 +2786,467 @@
       <c r="E57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" t="s">
+        <v>377</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" t="s">
         <v>48</v>
       </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" t="s">
-        <v>49</v>
+      <c r="C59" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -2411,13 +3254,17 @@
       <c r="E83" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -2425,13 +3272,17 @@
       <c r="E84" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -2439,13 +3290,17 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -2453,13 +3308,17 @@
       <c r="E86" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -2467,13 +3326,17 @@
       <c r="E87" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2481,13 +3344,17 @@
       <c r="E88" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -2495,55 +3362,69 @@
       <c r="E89" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C92" s="4"/>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" t="s">
         <v>147</v>
       </c>
-      <c r="B93" t="s">
-        <v>148</v>
+      <c r="C93" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -2551,13 +3432,17 @@
       <c r="E93" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -2565,41 +3450,53 @@
       <c r="E94" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -2607,27 +3504,35 @@
       <c r="E97" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2635,55 +3540,71 @@
       <c r="E99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E101" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E102" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2691,13 +3612,17 @@
       <c r="E103" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2705,41 +3630,53 @@
       <c r="E104" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B105" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -2747,153 +3684,189 @@
       <c r="E107" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C108" s="4"/>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C109" s="4"/>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E109" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C110" s="4"/>
       <c r="D110" t="s">
         <v>9</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E115" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C117" s="4"/>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B118" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -2901,13 +3874,17 @@
       <c r="E118" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2915,13 +3892,17 @@
       <c r="E119" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -2929,13 +3910,17 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -2943,13 +3928,17 @@
       <c r="E121" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -2957,13 +3946,17 @@
       <c r="E122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B123" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -2971,13 +3964,17 @@
       <c r="E123" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -2985,13 +3982,17 @@
       <c r="E124" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -2999,13 +4000,17 @@
       <c r="E125" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B126" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -3013,13 +4018,17 @@
       <c r="E126" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
@@ -3027,13 +4036,17 @@
       <c r="E127" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B128" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -3041,13 +4054,17 @@
       <c r="E128" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B129" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3055,13 +4072,17 @@
       <c r="E129" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -3069,27 +4090,35 @@
       <c r="E130" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B131" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="D131" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -3097,13 +4126,17 @@
       <c r="E132" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B133" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -3111,41 +4144,51 @@
       <c r="E133" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C134" s="4"/>
       <c r="D134" t="s">
         <v>7</v>
       </c>
       <c r="E134" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C135" s="4"/>
       <c r="D135" t="s">
         <v>7</v>
       </c>
       <c r="E135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B136" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -3153,111 +4196,155 @@
       <c r="E136" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B137" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C138" s="4"/>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E138" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E139" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C140" s="4"/>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B143" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -3265,13 +4352,19 @@
       <c r="E144" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -3279,13 +4372,19 @@
       <c r="E145" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B146" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="D146" t="s">
         <v>9</v>
@@ -3293,13 +4392,19 @@
       <c r="E146" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
@@ -3307,13 +4412,19 @@
       <c r="E147" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
@@ -3321,13 +4432,19 @@
       <c r="E148" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B149" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="D149" t="s">
         <v>9</v>
@@ -3335,13 +4452,19 @@
       <c r="E149" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
@@ -3349,12 +4472,148 @@
       <c r="E150" t="s">
         <v>10</v>
       </c>
+      <c r="F150" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C35" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C38" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C39" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C40" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C41" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C43" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C45" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C46" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C50" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C54" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C55" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C56" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C57" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C58" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C59" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C93" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C94" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C95" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C96" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C97" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C98" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C99" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C100" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C106" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C111" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C112" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C118" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C119" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C120" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C121" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C122" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C123" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C124" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C125" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C126" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C127" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C128" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C129" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C130" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C131" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C132" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C133" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C136" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C137" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C139" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C141" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C142" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C143" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C144" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C145" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C146" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C147" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C148" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C149" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C150" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId132"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId133"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3394,7 +4653,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3455,12 +4714,12 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -3471,7 +4730,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
